--- a/data/trans_camb/P16A11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Edad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.02948619868452657</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.5508115923522685</v>
+        <v>0.5508115923522683</v>
       </c>
     </row>
     <row r="5">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3199790652772342</v>
+        <v>-0.3170188795565688</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7944924338603037</v>
+        <v>-0.7918059998985101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3147580707048285</v>
+        <v>-0.3136024943566451</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1624256677056639</v>
+        <v>-0.1625489171093144</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.1621953524197338</v>
+        <v>-0.1619181411021722</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0</v>
+        <v>-0.08083413600774907</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7875111053012218</v>
+        <v>0.8489666122700259</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.480978415361649</v>
+        <v>3.362601483405382</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>1.232560186977087</v>
+        <v>1.136818275013063</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.420054165128938</v>
+        <v>3.388900566679612</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4323835704031282</v>
+        <v>0.434468979016726</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3823517525615517</v>
+        <v>0.4439668693116723</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.314665217425114</v>
+        <v>2.052960876253515</v>
       </c>
     </row>
     <row r="7">
@@ -767,7 +767,7 @@
         <v>0.3633190668160127</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6.78691600317694</v>
+        <v>6.786916003176938</v>
       </c>
     </row>
     <row r="8">
@@ -831,7 +831,7 @@
         <v>-0.4195445591052881</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1536402709284649</v>
+        <v>0.1536402709284648</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7077383152838052</v>
@@ -840,7 +840,7 @@
         <v>0.1752286597938663</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2066640472992481</v>
+        <v>0.206664047299248</v>
       </c>
     </row>
     <row r="11">
@@ -851,31 +851,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05925535318523087</v>
+        <v>0.0730150233774588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0381199095667579</v>
+        <v>-0.02562084882080096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.254422701409657</v>
+        <v>-0.3648347100176657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3526961082949061</v>
+        <v>-0.3973464479994059</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.338639083502459</v>
+        <v>-1.334552460666585</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7606821848429188</v>
+        <v>-0.7852392970481524</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07923341954892053</v>
+        <v>0.03368963055358633</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3502266257539381</v>
+        <v>-0.3582243940428774</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.423629233905934</v>
+        <v>-0.3503562670400908</v>
       </c>
     </row>
     <row r="12">
@@ -886,31 +886,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.00287397165633</v>
+        <v>1.95069407009491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.933773076930477</v>
+        <v>1.992026187100124</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.242291194870927</v>
+        <v>1.03228565768744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.095368401094676</v>
+        <v>2.08478209906469</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2381607598722089</v>
+        <v>0.3672223188321043</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.357083610775676</v>
+        <v>1.403811956133076</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.544926521489685</v>
+        <v>1.56618881678144</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8737085443394906</v>
+        <v>0.8679216795230679</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8554202388181904</v>
+        <v>0.9159690412197395</v>
       </c>
     </row>
     <row r="13">
@@ -936,7 +936,7 @@
         <v>-0.5550463758926587</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.203262022398459</v>
+        <v>0.2032620223984588</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1.483278909761911</v>
@@ -945,7 +945,7 @@
         <v>0.3672444600570494</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4331267873240538</v>
+        <v>0.4331267873240536</v>
       </c>
     </row>
     <row r="14">
@@ -956,27 +956,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9305540563193526</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>-0.6575687297345512</v>
-      </c>
+        <v>-0.6000916485975548</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.5007680590488449</v>
+        <v>-0.4994785018982535</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7680503995863238</v>
+        <v>-0.7932687681721373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07331216633053084</v>
+        <v>-0.09646545132514757</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6124206249669363</v>
+        <v>-0.5776138390733653</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6322170510050308</v>
+        <v>-0.6036325468706836</v>
       </c>
     </row>
     <row r="15">
@@ -990,20 +988,20 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>6.180063834091928</v>
+        <v>7.579498286223363</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>4.675066517754906</v>
+        <v>5.239861891002079</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.223106775000073</v>
+        <v>6.542371305941984</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.3480121864876</v>
+        <v>3.704334356246134</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.407345062860394</v>
+        <v>4.091034123390095</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1040,7 @@
         <v>-0.6775365630006316</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.6102994457282885</v>
+        <v>-0.6102994457282893</v>
       </c>
     </row>
     <row r="17">
@@ -1053,31 +1051,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07919206381072846</v>
+        <v>0.01463539034191382</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.312222859492722</v>
+        <v>-1.199711670234842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8325413338027989</v>
+        <v>-0.8758888173092098</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.111857992445283</v>
+        <v>-3.011064107567578</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.840186597169441</v>
+        <v>-3.616872478356409</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.956118631393818</v>
+        <v>-4.046882476195742</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.8009354671537673</v>
+        <v>-0.8713889497730322</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.96349298352529</v>
+        <v>-1.925260390013313</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.881463442689572</v>
+        <v>-1.956010744386117</v>
       </c>
     </row>
     <row r="18">
@@ -1088,31 +1086,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.203733146056535</v>
+        <v>4.219969573377366</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.467295582371575</v>
+        <v>2.439387123146856</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.430123476394742</v>
+        <v>3.074508754842111</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.853392909640719</v>
+        <v>1.151265963545451</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.03658035564962957</v>
+        <v>0.2698954975280036</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.5416701544657728</v>
+        <v>-0.4900909088165245</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.163692910967778</v>
+        <v>2.000326822333126</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7634474136952439</v>
+        <v>0.8019409736525436</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7047000929182237</v>
+        <v>0.7777725593769895</v>
       </c>
     </row>
     <row r="19">
@@ -1138,7 +1136,7 @@
         <v>-0.4471564855588467</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.5155766954008163</v>
+        <v>-0.5155766954008162</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1370590965433154</v>
@@ -1147,7 +1145,7 @@
         <v>-0.197943157320123</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1782997491134156</v>
+        <v>-0.1782997491134158</v>
       </c>
     </row>
     <row r="20">
@@ -1158,31 +1156,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02382813867812006</v>
+        <v>-0.03628272331986095</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.382323151398572</v>
+        <v>-0.3915914208122857</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3014465630435239</v>
+        <v>-0.2902890485673266</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.586037767635864</v>
+        <v>-0.5691765025197774</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7330764612589463</v>
+        <v>-0.6976290181146402</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7318528788215064</v>
+        <v>-0.740607699713143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2037328241250531</v>
+        <v>-0.2274418874360548</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4812824118634733</v>
+        <v>-0.4911274467175576</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4601526602175586</v>
+        <v>-0.4679564426916797</v>
       </c>
     </row>
     <row r="21">
@@ -1193,31 +1191,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.455654969635816</v>
+        <v>2.298205099178181</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.304620197440345</v>
+        <v>1.331239275903296</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.865816231121708</v>
+        <v>1.576874918572372</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2724205902968081</v>
+        <v>0.3996212253648373</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01678350015141454</v>
+        <v>0.1377910213114011</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.145265081603653</v>
+        <v>-0.1436940767526295</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7994519173399254</v>
+        <v>0.7050726418614413</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2800689701886375</v>
+        <v>0.2989496795962103</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.252193659260613</v>
+        <v>0.279271809710616</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1236,7 @@
         <v>1.029713508442359</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.316473770383844</v>
+        <v>1.316473770383839</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.594041103190899</v>
@@ -1256,7 +1254,7 @@
         <v>-0.06729714146746779</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.414440807474691</v>
+        <v>1.414440807474694</v>
       </c>
     </row>
     <row r="23">
@@ -1267,31 +1265,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.921462318032256</v>
+        <v>-5.173260672124059</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.803175815578118</v>
+        <v>-2.778984040147038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.35079408588671</v>
+        <v>-2.663475242151606</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.023239277552275</v>
+        <v>-1.229450329770475</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.772027754834869</v>
+        <v>-4.770633797782517</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.727892780140044</v>
+        <v>-1.777902580262259</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.008379989543827</v>
+        <v>-1.987273752653098</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.865346780087819</v>
+        <v>-2.796645664630747</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.330414339900648</v>
+        <v>-1.135937952454039</v>
       </c>
     </row>
     <row r="24">
@@ -1302,31 +1300,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.917061125596721</v>
+        <v>2.825971977811116</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.489452382891812</v>
+        <v>5.284773370351933</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.162453699665849</v>
+        <v>5.194452369109013</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.687731432926987</v>
+        <v>6.302110050499177</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.597654801645642</v>
+        <v>2.538799439712592</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.735567344001736</v>
+        <v>5.168861013128696</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.631724348580813</v>
+        <v>3.627394881094616</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.639819525907102</v>
+        <v>2.580141883316748</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.022176052496643</v>
+        <v>3.815561307466896</v>
       </c>
     </row>
     <row r="25">
@@ -1343,7 +1341,7 @@
         <v>0.08090593615273373</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1034370647176822</v>
+        <v>0.1034370647176818</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.244506570976467</v>
@@ -1361,7 +1359,7 @@
         <v>-0.005765750811001958</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1211836499289325</v>
+        <v>0.1211836499289328</v>
       </c>
     </row>
     <row r="26">
@@ -1372,31 +1370,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3334984106147956</v>
+        <v>-0.3468307888870207</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1964679607608408</v>
+        <v>-0.1908756354404433</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1574876971931555</v>
+        <v>-0.1828344301860675</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08921289225283133</v>
+        <v>-0.09403353117585661</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3861166764793414</v>
+        <v>-0.3755989589880156</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1382395723618622</v>
+        <v>-0.1418519607275056</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1527058799215887</v>
+        <v>-0.1559079539216615</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2178301941631119</v>
+        <v>-0.2107935337178387</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1032215295700862</v>
+        <v>-0.09319673231964569</v>
       </c>
     </row>
     <row r="27">
@@ -1407,31 +1405,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2844873822239147</v>
+        <v>0.2689616146168103</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5445491617131145</v>
+        <v>0.4765515089005942</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5052705281834245</v>
+        <v>0.463998436385807</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.770619505916557</v>
+        <v>0.7216187299322733</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3028849228662771</v>
+        <v>0.2850147435942444</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5571214967931093</v>
+        <v>0.6100469978079932</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3631946016949985</v>
+        <v>0.3485756966127019</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2539149216353485</v>
+        <v>0.2501460015843806</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4003665011915681</v>
+        <v>0.371323696538833</v>
       </c>
     </row>
     <row r="28">
@@ -1452,7 +1450,7 @@
         <v>-8.019528573992119</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.587943727952247</v>
+        <v>-2.587943727952252</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.492926749786649</v>
@@ -1470,7 +1468,7 @@
         <v>-5.02453002769353</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-4.625914751893778</v>
+        <v>-4.625914751893784</v>
       </c>
     </row>
     <row r="29">
@@ -1481,31 +1479,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.293895863989151</v>
+        <v>-1.706771302840589</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.05576846013764</v>
+        <v>-14.0656744036017</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.892445824842856</v>
+        <v>-8.53466135297464</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8615627504729307</v>
+        <v>0.6331158622624806</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.108265073483814</v>
+        <v>-8.764009080821925</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.68628153335641</v>
+        <v>-11.71158458217656</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.3602045440553</v>
+        <v>1.673000919628912</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-9.267816678003316</v>
+        <v>-9.092693970486152</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.458062429529798</v>
+        <v>-8.714025743637237</v>
       </c>
     </row>
     <row r="30">
@@ -1516,31 +1514,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.47864482726357</v>
+        <v>11.8424506106592</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.989235844449904</v>
+        <v>-2.360838129939726</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.489228049693887</v>
+        <v>3.163022872390003</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.44017167165206</v>
+        <v>14.13739361648963</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.041664316418914</v>
+        <v>4.271439508094015</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.006445918945837</v>
+        <v>-1.720536893297107</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.79957650313346</v>
+        <v>10.83087830371099</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.4937008653592649</v>
+        <v>-0.4260780792756116</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.573903222800596</v>
+        <v>-0.6983714884742778</v>
       </c>
     </row>
     <row r="31">
@@ -1557,7 +1555,7 @@
         <v>-0.2644834183867219</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.08535017955806831</v>
+        <v>-0.08535017955806851</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.231675894994793</v>
@@ -1575,7 +1573,7 @@
         <v>-0.160251867013034</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1475384705730193</v>
+        <v>-0.1475384705730195</v>
       </c>
     </row>
     <row r="32">
@@ -1586,31 +1584,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03956612931435349</v>
+        <v>-0.0511527669714818</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4146617800902512</v>
+        <v>-0.4217512780733055</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2580084233940427</v>
+        <v>-0.2501403816408116</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0251447165696845</v>
+        <v>0.01749992224846077</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2307810861655581</v>
+        <v>-0.2442860875997022</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3529766348543775</v>
+        <v>-0.3292005995431018</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0402625044768503</v>
+        <v>0.04430180835137679</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.271665377148208</v>
+        <v>-0.2733706068459779</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2469485893744642</v>
+        <v>-0.2539637201316156</v>
       </c>
     </row>
     <row r="33">
@@ -1621,31 +1619,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4253483480958664</v>
+        <v>0.4227428651124179</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.05377740041745254</v>
+        <v>-0.08951306161653705</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1343863365634833</v>
+        <v>0.1175893079394024</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4675827046613823</v>
+        <v>0.4860817110648161</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1416185574293992</v>
+        <v>0.1469068661979079</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06906866975844492</v>
+        <v>-0.06046360950616127</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3708879225128014</v>
+        <v>0.3741006044648382</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.01720352054737737</v>
+        <v>-0.01768282656326241</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.02003553601209964</v>
+        <v>-0.02704560846046411</v>
       </c>
     </row>
     <row r="34">
@@ -1675,7 +1673,7 @@
         <v>-0.5420837920223964</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.2902138926683284</v>
+        <v>0.2902138926683229</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>11.5992980792813</v>
@@ -1684,7 +1682,7 @@
         <v>1.269825908868949</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.022864215218674</v>
+        <v>4.022864215218669</v>
       </c>
     </row>
     <row r="35">
@@ -1695,31 +1693,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4.092146700629257</v>
+        <v>4.244876112851456</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.605886433450123</v>
+        <v>-3.971440575438208</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.395339153779068</v>
+        <v>1.003246382988462</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.941456197015656</v>
+        <v>3.463597680217246</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.382036108428133</v>
+        <v>-7.324973268424942</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.852763982009359</v>
+        <v>-5.817869594829521</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.022795930598434</v>
+        <v>6.05279926318273</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.233443464035344</v>
+        <v>-4.413988559035315</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.4773573390637798</v>
+        <v>-0.5261401712921383</v>
       </c>
     </row>
     <row r="36">
@@ -1730,31 +1728,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.2535190983713</v>
+        <v>20.76575697807225</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.26702994283004</v>
+        <v>11.14484496934273</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.10538193704271</v>
+        <v>14.77932335340665</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18.28589075093215</v>
+        <v>18.04178663259304</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.824912475064984</v>
+        <v>6.632779758979717</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.992242043625681</v>
+        <v>6.330372713731665</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>16.97232576418013</v>
+        <v>16.81052283693898</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.508481761949849</v>
+        <v>6.765020425939117</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.367806640717479</v>
+        <v>8.880140538430529</v>
       </c>
     </row>
     <row r="37">
@@ -1780,7 +1778,7 @@
         <v>-0.0118359128912064</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006336559779116846</v>
+        <v>0.006336559779116725</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2733769457373981</v>
@@ -1789,7 +1787,7 @@
         <v>0.02992777030231453</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.09481248992446774</v>
+        <v>0.0948124899244676</v>
       </c>
     </row>
     <row r="38">
@@ -1800,31 +1798,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.09334170763527511</v>
+        <v>0.100556940393172</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1045211464901705</v>
+        <v>-0.09802613653294839</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.030729270667326</v>
+        <v>0.0200620188252238</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.08082381868397648</v>
+        <v>0.06731029082970338</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1532857337040042</v>
+        <v>-0.1509082350117804</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1161548194782062</v>
+        <v>-0.1174428629392244</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1314790178027998</v>
+        <v>0.1362401446486414</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.09293174233101391</v>
+        <v>-0.09764504359368652</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.01090076013231119</v>
+        <v>-0.01101359541907028</v>
       </c>
     </row>
     <row r="39">
@@ -1835,31 +1833,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5830159923300872</v>
+        <v>0.6028328245344582</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3300109040231154</v>
+        <v>0.3278671519283606</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4532810283306642</v>
+        <v>0.425619990695666</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4240432985982107</v>
+        <v>0.4343053044378202</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1592215889176575</v>
+        <v>0.1532455020784872</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1697555220093346</v>
+        <v>0.1532317056520019</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.425267889576442</v>
+        <v>0.4278353051279634</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1645085628171918</v>
+        <v>0.1734008232150241</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2108674281379984</v>
+        <v>0.2254369993283223</v>
       </c>
     </row>
     <row r="40">
@@ -1889,7 +1887,7 @@
         <v>1.093202450877329</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.314946719237227</v>
+        <v>8.314946719237238</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>10.01796036967889</v>
@@ -1909,31 +1907,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.770882790145798</v>
+        <v>3.537190040608834</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.497747043127893</v>
+        <v>-1.56911659903892</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.331354547016093</v>
+        <v>2.519541244459859</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.221326495857469</v>
+        <v>1.161888322624492</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.021434066580095</v>
+        <v>-7.172510594454411</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.045233112099536</v>
+        <v>1.352715997041501</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.611703685410586</v>
+        <v>4.147119422419902</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.999866037843141</v>
+        <v>-2.745994457216209</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.059755417294756</v>
+        <v>4.070853667128983</v>
       </c>
     </row>
     <row r="42">
@@ -1944,31 +1942,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>21.42967808949632</v>
+        <v>22.72081990545301</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>16.01933349108161</v>
+        <v>17.07103139878076</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19.03845840426168</v>
+        <v>19.7425358050129</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16.05377577273618</v>
+        <v>16.40188830025635</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.429586376214807</v>
+        <v>8.949450455223376</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.67388881194554</v>
+        <v>14.48625183667299</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.11349848738459</v>
+        <v>15.99895552067117</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.682266341657874</v>
+        <v>9.545513592934949</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>14.07698973663481</v>
+        <v>14.63003329179417</v>
       </c>
     </row>
     <row r="43">
@@ -1994,7 +1992,7 @@
         <v>0.01947356009867746</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.148116768787355</v>
+        <v>0.1481167687873552</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1905482233595906</v>
@@ -2014,31 +2012,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.02988408844825914</v>
+        <v>0.06692874166643328</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02766012652446907</v>
+        <v>-0.03175382313012054</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.04377581378204382</v>
+        <v>0.04668385664852259</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.02043857254531302</v>
+        <v>0.02032427702959348</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1186642442323308</v>
+        <v>-0.1214710594027147</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01790494143171976</v>
+        <v>0.02356592591729059</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08235023633330049</v>
+        <v>0.07316108107145509</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03624764725262198</v>
+        <v>-0.04732933675012142</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.07158414145140446</v>
+        <v>0.07402215667118051</v>
       </c>
     </row>
     <row r="45">
@@ -2049,31 +2047,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5013621688290069</v>
+        <v>0.5376977144536325</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3775884153441142</v>
+        <v>0.421451227572207</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4613058142865568</v>
+        <v>0.4892314586540913</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3111030136104135</v>
+        <v>0.3173075189701395</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1808527680972467</v>
+        <v>0.1772215205109508</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2902957847501716</v>
+        <v>0.2814045108688313</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3333357307621583</v>
+        <v>0.3215911200958645</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1964191358595415</v>
+        <v>0.1933798440507361</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2878384565115846</v>
+        <v>0.299458642700195</v>
       </c>
     </row>
     <row r="46">
@@ -2094,7 +2092,7 @@
         <v>2.210235178632209</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6.153773736763657</v>
+        <v>6.153773736763654</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>4.23384922465703</v>
@@ -2103,7 +2101,7 @@
         <v>1.088251524439845</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.85547672480637</v>
+        <v>3.855476724806367</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>4.129817256561449</v>
@@ -2112,7 +2110,7 @@
         <v>1.649373487258002</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>4.997388299125122</v>
+        <v>4.997388299125119</v>
       </c>
     </row>
     <row r="47">
@@ -2123,31 +2121,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.386359026533444</v>
+        <v>1.987367696049968</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.6504672229537624</v>
+        <v>0.6001825661916143</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4.32869641085463</v>
+        <v>4.438846896275646</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.280531640518746</v>
+        <v>2.466420738102006</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.8387572511528564</v>
+        <v>-0.7209812336444984</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.190049983719225</v>
+        <v>2.113688094746829</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.778437709613973</v>
+        <v>2.88281958830066</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.4057680984804281</v>
+        <v>0.4820798734592555</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.884078804888263</v>
+        <v>3.817989570370688</v>
       </c>
     </row>
     <row r="48">
@@ -2158,31 +2156,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.789139319773737</v>
+        <v>5.674445963290113</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.020912953495983</v>
+        <v>3.892143562273723</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.831503279141105</v>
+        <v>7.811367752723217</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.225374581294768</v>
+        <v>6.129024827356385</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.024069150100111</v>
+        <v>2.971288432023963</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.550299579752044</v>
+        <v>5.382471792990877</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.399905888189675</v>
+        <v>5.478040471335314</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.053459493920734</v>
+        <v>2.864672790443327</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>6.194425176595685</v>
+        <v>6.16674296518884</v>
       </c>
     </row>
     <row r="49">
@@ -2199,7 +2197,7 @@
         <v>0.1750566613580535</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.4873956832853301</v>
+        <v>0.4873956832853298</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2539478483562765</v>
@@ -2208,7 +2206,7 @@
         <v>0.06527373046080157</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2312529253404376</v>
+        <v>0.2312529253404375</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2813132699387798</v>
@@ -2217,7 +2215,7 @@
         <v>0.1123513754303992</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3404101334864397</v>
+        <v>0.3404101334864395</v>
       </c>
     </row>
     <row r="50">
@@ -2228,31 +2226,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.176594667369986</v>
+        <v>0.1467531759124035</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.04748304558194712</v>
+        <v>0.04328471973808345</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3105753016144829</v>
+        <v>0.3293339467404083</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.132849791904434</v>
+        <v>0.1416948889545975</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.04926461058589928</v>
+        <v>-0.04385873381237246</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1208043676779114</v>
+        <v>0.1168509052451229</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1789160845305495</v>
+        <v>0.1922703513052666</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.02572574338226144</v>
+        <v>0.03223074272309032</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2566627632903591</v>
+        <v>0.2484661923612461</v>
       </c>
     </row>
     <row r="51">
@@ -2263,31 +2261,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4854962381638983</v>
+        <v>0.4747416455312904</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3386443844466512</v>
+        <v>0.3334030160232102</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6601782965350421</v>
+        <v>0.6825415962297786</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3996164915964001</v>
+        <v>0.3882838022556061</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1928643516392091</v>
+        <v>0.1833342821377304</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3542366304774182</v>
+        <v>0.3438006084057811</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.384040355154013</v>
+        <v>0.3928016483371174</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2187393345110124</v>
+        <v>0.2039393000426511</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4428452602017476</v>
+        <v>0.4399073658649308</v>
       </c>
     </row>
     <row r="52">
